--- a/file/public/excels/导入模板.xlsx
+++ b/file/public/excels/导入模板.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sun\Desktop\冶金系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\camrsti\file\public\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FFE563-EAFE-4A23-9A8E-AC06BD0CAF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE74FD4F-4AE7-46B7-82F9-92370DE7D4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="矿物含量" sheetId="4" r:id="rId1"/>
     <sheet name="矿物测量" sheetId="6" r:id="rId2"/>
-    <sheet name="化学成分(氧化物）" sheetId="3" r:id="rId3"/>
-    <sheet name="XRD" sheetId="5" r:id="rId4"/>
+    <sheet name="XRD" sheetId="5" r:id="rId3"/>
+    <sheet name="化学成分(氧化物）" sheetId="3" r:id="rId4"/>
     <sheet name="化学成分(单质)" sheetId="7" r:id="rId5"/>
     <sheet name="物理性能" sheetId="1" r:id="rId6"/>
     <sheet name="热分析" sheetId="2" r:id="rId7"/>
@@ -1153,20 +1153,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1188,6 +1176,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1559,34 +1559,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="3" t="s">
         <v>60</v>
       </c>
@@ -1599,14 +1599,14 @@
       <c r="G2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3042,26 +3042,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="4" t="s">
         <v>81</v>
       </c>
@@ -3213,11 +3213,863 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F1721-4644-4C01-A0B7-720165D73BF0}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="15" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="16"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
@@ -3228,7 +4080,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -3252,56 +4104,56 @@
       <c r="R1" s="19"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3697,7 +4549,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="9" t="s">
         <v>173</v>
       </c>
       <c r="B20" s="1">
@@ -3835,7 +4687,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="9" t="s">
         <v>174</v>
       </c>
       <c r="B26" s="1">
@@ -5396,858 +6248,6 @@
     <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F1721-4644-4C01-A0B7-720165D73BF0}">
-  <dimension ref="A1:O19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="15" width="9.06640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.27</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.59</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.22</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.18</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.31</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.62</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.23</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.54</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0.27</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.47</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.22</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.76</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.63</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.19</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.22</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L15" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="M15" s="10">
-        <v>0.19</v>
-      </c>
-      <c r="N15" s="10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0.69</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0.43</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.19</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0.22</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.21</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0.32</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6266,7 +6266,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -6299,83 +6299,83 @@
       <c r="AA1" s="19"/>
     </row>
     <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="Z2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6412,38 +6412,38 @@
     <col min="11" max="11" width="15.1328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6547,7 +6547,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -6558,28 +6558,28 @@
     <col min="6" max="6" width="9.86328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>230</v>
       </c>
       <c r="C2" s="1">
@@ -6678,7 +6678,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="9" t="s">
         <v>231</v>
       </c>
       <c r="C11" s="1">
@@ -6689,7 +6689,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>232</v>
       </c>
       <c r="C12" s="1">
@@ -6700,7 +6700,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="9" t="s">
         <v>233</v>
       </c>
       <c r="C13" s="1">
@@ -6744,7 +6744,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="9" t="s">
         <v>234</v>
       </c>
       <c r="C17" s="1">
@@ -6755,7 +6755,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="9" t="s">
         <v>235</v>
       </c>
       <c r="C18" s="1">
